--- a/SDET-13/Data/testdata.xlsx
+++ b/SDET-13/Data/testdata.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18520" windowHeight="5860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="6105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N18"/>
+  <oleSize ref="A1:J18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -424,18 +424,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -459,8 +459,8 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -488,8 +488,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -499,18 +499,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -532,13 +532,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>

--- a/SDET-13/Data/testdata.xlsx
+++ b/SDET-13/Data/testdata.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="6105" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10730" windowHeight="3580"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J18"/>
+  <oleSize ref="A1:F10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -424,18 +424,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -459,8 +459,8 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -488,8 +488,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -499,18 +499,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -535,10 +535,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
